--- a/biology/Mycologie/Tricholome_équestre/Tricholome_équestre.xlsx
+++ b/biology/Mycologie/Tricholome_équestre/Tricholome_équestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A9questre</t>
+          <t>Tricholome_équestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholome équestre, Chevalier
 Tricholoma equestre, le tricholome équestre, Chevalier, également nommé tricholome chevalier, tricholome des chevaliers, Bidaou (du gascon bidau, appellation  régionale dans les Landes de Gascogne), Canari ou encore Jaunet, est une espèce de champignons basidiomycètes, non comestibles, du genre Tricholoma, de la famille des Tricholomataceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A9questre</t>
+          <t>Tricholome_équestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Tricholoma equestre var. equestre (L.) P. Kumm. 1871[1]
-Synonymes
-Agaricus auratus Paulet 1793
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricholoma equestre var. equestre (L.) P. Kumm. 1871
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tricholome_équestre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus auratus Paulet 1793
 Agaricus equestris L. 1753
 Agaricus flavovirens Pers. 1793
 Gyrophila equestris (L.) Quél. 1886
@@ -529,31 +581,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tricholome_%C3%A9questre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tricholome_équestre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau, de 5 à 10 cm de diamètre, est hémisphérique, convexe, puis s'étale se creusant parfois.
 Les individus sont grégaires.
@@ -569,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tricholome_%C3%A9questre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tricholome_équestre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vient sous les feuillus comme sous les conifères, appréciant la couverture des pins et épicéas, plutôt en terrain siliceux, acides et sableux, de l'automne à l'hiver. Plus rarement sous les feuillus.
 Il est facilement repérable car il forme une petite motte de terre sableuse lorsque son « chapeau » perce le sol, bien qu'il arrive à pratiquer le mimétisme en empruntant toutes les nuances du sable et du brunissement des mousses.
@@ -601,45 +657,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tricholome_%C3%A9questre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon avait par le passé une réputation de très bon comestible mais des repas copieux et répétés de champignons peuvent déclencher soudainement des réactions allergiques et ont été à l'origine de plusieurs intoxications mortelles dans les années 1990, ce qui lui a valu d'être classé dans les espèces toxiques[2]. Comestible apprécié (consommé en grande quantité dans les Landes de Gascogne, notamment dans la préparation des salmis), il est, comme le Tricholome doré (Tricholoma auratum), depuis 2001 classé dans la catégorie des champignons toxiques à cause de cas d'empoisonnements (rhabdomyolyse), parfois mortels, intervenus après une consommation excessive ou répétée (supérieure à 300 grammes[3], même répartis sur plusieurs jours) (voir la liste des champignons toxiques). Ces notions de volume supportable par l'humain étant sujettes à variations en fonction de sa morphologie et de son état de santé, il est plus prudent de s'abstenir.
-L'espèce a également une forte capacité de bioaccumulation du césium 137[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A9questre</t>
+          <t>Tricholome_équestre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -654,15 +678,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Interdiction à la vente</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tricholome équestre est interdit en France à la vente et à l'importation [5]:
-après que 12 cas de rhabdomyolyses aigües (destruction des cellules musculaires), survenus dans le sud-ouest de la France entre 1992 et 2000, dont trois mortels ont été rapportés[6].
-Symptômes
-Les cas observés ont été clairement imputés à une consommation excessive de tricholome équestre ; le temps de latence varie de 24 à 72 heures après ingestion. Les premiers signes associent une fatigue musculaire anormale, des douleurs musculaires prédominant au niveau des hanches et des épaules ainsi que des sueurs sans fièvre. Les troubles digestifs sont mineurs voire absents. Les symptômes associés à une consommation de tricholomes doivent faire l’objet d’une consultation immédiate.
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon avait par le passé une réputation de très bon comestible mais des repas copieux et répétés de champignons peuvent déclencher soudainement des réactions allergiques et ont été à l'origine de plusieurs intoxications mortelles dans les années 1990, ce qui lui a valu d'être classé dans les espèces toxiques. Comestible apprécié (consommé en grande quantité dans les Landes de Gascogne, notamment dans la préparation des salmis), il est, comme le Tricholome doré (Tricholoma auratum), depuis 2001 classé dans la catégorie des champignons toxiques à cause de cas d'empoisonnements (rhabdomyolyse), parfois mortels, intervenus après une consommation excessive ou répétée (supérieure à 300 grammes, même répartis sur plusieurs jours) (voir la liste des champignons toxiques). Ces notions de volume supportable par l'humain étant sujettes à variations en fonction de sa morphologie et de son état de santé, il est plus prudent de s'abstenir.
+L'espèce a également une forte capacité de bioaccumulation du césium 137.
 </t>
         </is>
       </c>
@@ -673,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tricholome_%C3%A9questre</t>
+          <t>Tricholome_équestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,10 +712,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Interdiction à la vente</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tricholome équestre est interdit en France à la vente et à l'importation :
+après que 12 cas de rhabdomyolyses aigües (destruction des cellules musculaires), survenus dans le sud-ouest de la France entre 1992 et 2000, dont trois mortels ont été rapportés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tricholome_équestre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Interdiction à la vente</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Symptômes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cas observés ont été clairement imputés à une consommation excessive de tricholome équestre ; le temps de latence varie de 24 à 72 heures après ingestion. Les premiers signes associent une fatigue musculaire anormale, des douleurs musculaires prédominant au niveau des hanches et des épaules ainsi que des sueurs sans fièvre. Les troubles digestifs sont mineurs voire absents. Les symptômes associés à une consommation de tricholomes doivent faire l’objet d’une consultation immédiate.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tricholome_équestre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tricholome_%C3%A9questre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Espèces proches et risque de confusion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Comme il s'agit d'une espèce recherchée, les mycologues indiquent parfois des risques de confusion avec des amanites plus ou moins jaunes, Amanite citrine voire Amanite phalloïde, ou bien avec des cortinaires tels que Cortinarius splendens.
 Le Tricholome chevalier ne possède ni volve ni anneau ni cortine, pas plus d'ailleurs par exemple que la chair cassante des Russules jaunes. Il ne peut guère être confondu qu'avec d'autres Tricholomes, et notamment :
